--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Lgi4</t>
+  </si>
+  <si>
+    <t>Adam11</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lgi4</t>
-  </si>
-  <si>
-    <t>Adam11</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.03034166666666667</v>
+        <v>10.326286</v>
       </c>
       <c r="H2">
-        <v>0.09102499999999999</v>
+        <v>30.978858</v>
       </c>
       <c r="I2">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="J2">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.114041</v>
+        <v>0.092903</v>
       </c>
       <c r="N2">
-        <v>0.342123</v>
+        <v>0.278709</v>
       </c>
       <c r="O2">
-        <v>0.07100488927427132</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="P2">
-        <v>0.07100488927427133</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="Q2">
-        <v>0.003460194008333333</v>
+        <v>0.9593429482579999</v>
       </c>
       <c r="R2">
-        <v>0.031141746075</v>
+        <v>8.634086534322</v>
       </c>
       <c r="S2">
-        <v>0.00016082741072132</v>
+        <v>0.02101082498482547</v>
       </c>
       <c r="T2">
-        <v>0.00016082741072132</v>
+        <v>0.02101082498482547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.03034166666666667</v>
+        <v>10.326286</v>
       </c>
       <c r="H3">
-        <v>0.09102499999999999</v>
+        <v>30.978858</v>
       </c>
       <c r="I3">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="J3">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.876414</v>
       </c>
       <c r="O3">
-        <v>0.181892708261126</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="P3">
-        <v>0.1818927082611261</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="Q3">
-        <v>0.008863953816666667</v>
+        <v>3.016700539468</v>
       </c>
       <c r="R3">
-        <v>0.07977558435</v>
+        <v>27.150304855212</v>
       </c>
       <c r="S3">
-        <v>0.0004119904079524468</v>
+        <v>0.06606956061071162</v>
       </c>
       <c r="T3">
-        <v>0.0004119904079524468</v>
+        <v>0.06606956061071163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.03034166666666667</v>
+        <v>10.326286</v>
       </c>
       <c r="H4">
-        <v>0.09102499999999999</v>
+        <v>30.978858</v>
       </c>
       <c r="I4">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="J4">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.199921666666667</v>
+        <v>2.195567</v>
       </c>
       <c r="N4">
-        <v>3.599765</v>
+        <v>6.586701</v>
       </c>
       <c r="O4">
-        <v>0.7471024024646026</v>
+        <v>0.8507944639402807</v>
       </c>
       <c r="P4">
-        <v>0.7471024024646027</v>
+        <v>0.8507944639402808</v>
       </c>
       <c r="Q4">
-        <v>0.03640762323611111</v>
+        <v>22.672052774162</v>
       </c>
       <c r="R4">
-        <v>0.327668609125</v>
+        <v>204.048474967458</v>
       </c>
       <c r="S4">
-        <v>0.001692201004186308</v>
+        <v>0.4965466559686802</v>
       </c>
       <c r="T4">
-        <v>0.001692201004186309</v>
+        <v>0.4965466559686803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.326286</v>
+        <v>7.367010000000001</v>
       </c>
       <c r="H5">
-        <v>30.978858</v>
+        <v>22.10103</v>
       </c>
       <c r="I5">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357827</v>
       </c>
       <c r="J5">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357828</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.114041</v>
+        <v>0.092903</v>
       </c>
       <c r="N5">
-        <v>0.342123</v>
+        <v>0.278709</v>
       </c>
       <c r="O5">
-        <v>0.07100488927427132</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="P5">
-        <v>0.07100488927427133</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="Q5">
-        <v>1.177619981726</v>
+        <v>0.68441733003</v>
       </c>
       <c r="R5">
-        <v>10.598579835534</v>
+        <v>6.15975597027</v>
       </c>
       <c r="S5">
-        <v>0.05473495764068607</v>
+        <v>0.01498960592137958</v>
       </c>
       <c r="T5">
-        <v>0.05473495764068609</v>
+        <v>0.01498960592137958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.326286</v>
+        <v>7.367010000000001</v>
       </c>
       <c r="H6">
-        <v>30.978858</v>
+        <v>22.10103</v>
       </c>
       <c r="I6">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357827</v>
       </c>
       <c r="J6">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357828</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.876414</v>
       </c>
       <c r="O6">
-        <v>0.181892708261126</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="P6">
-        <v>0.1818927082611261</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="Q6">
-        <v>3.016700539468</v>
+        <v>2.15218356738</v>
       </c>
       <c r="R6">
-        <v>27.150304855212</v>
+        <v>19.36965210642</v>
       </c>
       <c r="S6">
-        <v>0.1402141427665028</v>
+        <v>0.04713554454280258</v>
       </c>
       <c r="T6">
-        <v>0.1402141427665028</v>
+        <v>0.0471355445428026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.326286</v>
+        <v>7.367010000000001</v>
       </c>
       <c r="H7">
-        <v>30.978858</v>
+        <v>22.10103</v>
       </c>
       <c r="I7">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357827</v>
       </c>
       <c r="J7">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357828</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.199921666666667</v>
+        <v>2.195567</v>
       </c>
       <c r="N7">
-        <v>3.599765</v>
+        <v>6.586701</v>
       </c>
       <c r="O7">
-        <v>0.7471024024646026</v>
+        <v>0.8507944639402807</v>
       </c>
       <c r="P7">
-        <v>0.7471024024646027</v>
+        <v>0.8507944639402808</v>
       </c>
       <c r="Q7">
-        <v>12.39073430759666</v>
+        <v>16.17476404467</v>
       </c>
       <c r="R7">
-        <v>111.51660876837</v>
+        <v>145.57287640203</v>
       </c>
       <c r="S7">
-        <v>0.5759127120697067</v>
+        <v>0.3542478079716005</v>
       </c>
       <c r="T7">
-        <v>0.5759127120697068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.039140333333334</v>
-      </c>
-      <c r="H8">
-        <v>9.117421</v>
-      </c>
-      <c r="I8">
-        <v>0.2268731687002442</v>
-      </c>
-      <c r="J8">
-        <v>0.2268731687002443</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.114041</v>
-      </c>
-      <c r="N8">
-        <v>0.342123</v>
-      </c>
-      <c r="O8">
-        <v>0.07100488927427132</v>
-      </c>
-      <c r="P8">
-        <v>0.07100488927427133</v>
-      </c>
-      <c r="Q8">
-        <v>0.3465866027536667</v>
-      </c>
-      <c r="R8">
-        <v>3.119279424783</v>
-      </c>
-      <c r="S8">
-        <v>0.01610910422286392</v>
-      </c>
-      <c r="T8">
-        <v>0.01610910422286392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.039140333333334</v>
-      </c>
-      <c r="H9">
-        <v>9.117421</v>
-      </c>
-      <c r="I9">
-        <v>0.2268731687002442</v>
-      </c>
-      <c r="J9">
-        <v>0.2268731687002443</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.292138</v>
-      </c>
-      <c r="N9">
-        <v>0.876414</v>
-      </c>
-      <c r="O9">
-        <v>0.181892708261126</v>
-      </c>
-      <c r="P9">
-        <v>0.1818927082611261</v>
-      </c>
-      <c r="Q9">
-        <v>0.8878483786993334</v>
-      </c>
-      <c r="R9">
-        <v>7.990635408294001</v>
-      </c>
-      <c r="S9">
-        <v>0.04126657508667075</v>
-      </c>
-      <c r="T9">
-        <v>0.04126657508667077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.039140333333334</v>
-      </c>
-      <c r="H10">
-        <v>9.117421</v>
-      </c>
-      <c r="I10">
-        <v>0.2268731687002442</v>
-      </c>
-      <c r="J10">
-        <v>0.2268731687002443</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.199921666666667</v>
-      </c>
-      <c r="N10">
-        <v>3.599765</v>
-      </c>
-      <c r="O10">
-        <v>0.7471024024646026</v>
-      </c>
-      <c r="P10">
-        <v>0.7471024024646027</v>
-      </c>
-      <c r="Q10">
-        <v>3.646730334007222</v>
-      </c>
-      <c r="R10">
-        <v>32.820573006065</v>
-      </c>
-      <c r="S10">
-        <v>0.1694974893907095</v>
-      </c>
-      <c r="T10">
-        <v>0.1694974893907096</v>
+        <v>0.3542478079716006</v>
       </c>
     </row>
   </sheetData>
